--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.92444566666667</v>
+        <v>92.32855733333334</v>
       </c>
       <c r="H2">
-        <v>200.773337</v>
+        <v>276.985672</v>
       </c>
       <c r="I2">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="J2">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N2">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O2">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P2">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q2">
-        <v>5990.134793745767</v>
+        <v>10.50123467779289</v>
       </c>
       <c r="R2">
-        <v>53911.2131437119</v>
+        <v>94.511112100136</v>
       </c>
       <c r="S2">
-        <v>0.09181537319829881</v>
+        <v>0.0005725061359238553</v>
       </c>
       <c r="T2">
-        <v>0.09181537319829881</v>
+        <v>0.0005725061359238553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.92444566666667</v>
+        <v>92.32855733333334</v>
       </c>
       <c r="H3">
-        <v>200.773337</v>
+        <v>276.985672</v>
       </c>
       <c r="I3">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="J3">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.612515</v>
       </c>
       <c r="O3">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P3">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q3">
-        <v>35.97222416806167</v>
+        <v>49.62706120945334</v>
       </c>
       <c r="R3">
-        <v>323.750017512555</v>
+        <v>446.64355088508</v>
       </c>
       <c r="S3">
-        <v>0.0005513737671165374</v>
+        <v>0.002705567290136236</v>
       </c>
       <c r="T3">
-        <v>0.0005513737671165375</v>
+        <v>0.002705567290136236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.92444566666667</v>
+        <v>92.32855733333334</v>
       </c>
       <c r="H4">
-        <v>200.773337</v>
+        <v>276.985672</v>
       </c>
       <c r="I4">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="J4">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N4">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O4">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P4">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q4">
-        <v>6.435610852346556</v>
+        <v>5.095028331696889</v>
       </c>
       <c r="R4">
-        <v>57.920497671119</v>
+        <v>45.855254985272</v>
       </c>
       <c r="S4">
-        <v>9.864352514807521E-05</v>
+        <v>0.0002777706690786405</v>
       </c>
       <c r="T4">
-        <v>9.864352514807521E-05</v>
+        <v>0.0002777706690786405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.92444566666667</v>
+        <v>92.32855733333334</v>
       </c>
       <c r="H5">
-        <v>200.773337</v>
+        <v>276.985672</v>
       </c>
       <c r="I5">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="J5">
-        <v>0.1390658149369589</v>
+        <v>0.1878287475723421</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N5">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O5">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P5">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q5">
-        <v>3040.262367357526</v>
+        <v>3380.038889975779</v>
       </c>
       <c r="R5">
-        <v>27362.36130621773</v>
+        <v>30420.35000978201</v>
       </c>
       <c r="S5">
-        <v>0.04660042444639553</v>
+        <v>0.1842729034772034</v>
       </c>
       <c r="T5">
-        <v>0.04660042444639553</v>
+        <v>0.1842729034772034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>371.389397</v>
       </c>
       <c r="I6">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="J6">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N6">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O6">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P6">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q6">
-        <v>11080.51787273905</v>
+        <v>14.08032114650678</v>
       </c>
       <c r="R6">
-        <v>99724.66085465143</v>
+        <v>126.722890318561</v>
       </c>
       <c r="S6">
-        <v>0.1698395643413854</v>
+        <v>0.0007676307119581285</v>
       </c>
       <c r="T6">
-        <v>0.1698395643413854</v>
+        <v>0.0007676307119581285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>371.389397</v>
       </c>
       <c r="I7">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="J7">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.612515</v>
       </c>
       <c r="O7">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P7">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q7">
         <v>66.54121927816168</v>
@@ -883,10 +883,10 @@
         <v>598.870973503455</v>
       </c>
       <c r="S7">
-        <v>0.001019928113716759</v>
+        <v>0.003627693075859248</v>
       </c>
       <c r="T7">
-        <v>0.00101992811371676</v>
+        <v>0.003627693075859248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>371.389397</v>
       </c>
       <c r="I8">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="J8">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N8">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O8">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P8">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q8">
-        <v>11.90455699692656</v>
+        <v>6.831542895860778</v>
       </c>
       <c r="R8">
-        <v>107.141012972339</v>
+        <v>61.483886062747</v>
       </c>
       <c r="S8">
-        <v>0.0001824702416670894</v>
+        <v>0.0003724419409441613</v>
       </c>
       <c r="T8">
-        <v>0.0001824702416670894</v>
+        <v>0.0003724419409441613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>371.389397</v>
       </c>
       <c r="I9">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="J9">
-        <v>0.2572431674667577</v>
+        <v>0.2518455369783797</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N9">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O9">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P9">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q9">
-        <v>5623.860340253766</v>
+        <v>4532.041661651921</v>
       </c>
       <c r="R9">
-        <v>50614.74306228389</v>
+        <v>40788.37495486729</v>
       </c>
       <c r="S9">
-        <v>0.08620120476998844</v>
+        <v>0.2470777712496182</v>
       </c>
       <c r="T9">
-        <v>0.08620120476998844</v>
+        <v>0.2470777712496182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>167.4648336666667</v>
+        <v>174.4662783333333</v>
       </c>
       <c r="H10">
-        <v>502.394501</v>
+        <v>523.3988350000001</v>
       </c>
       <c r="I10">
-        <v>0.3479839591519656</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="J10">
-        <v>0.3479839591519657</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N10">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O10">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P10">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q10">
-        <v>14989.09579127353</v>
+        <v>19.84338740965056</v>
       </c>
       <c r="R10">
-        <v>134901.8621214618</v>
+        <v>178.590486686855</v>
       </c>
       <c r="S10">
-        <v>0.2297493247426978</v>
+        <v>0.001081821461771847</v>
       </c>
       <c r="T10">
-        <v>0.2297493247426978</v>
+        <v>0.001081821461771847</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>167.4648336666667</v>
+        <v>174.4662783333333</v>
       </c>
       <c r="H11">
-        <v>502.394501</v>
+        <v>523.3988350000001</v>
       </c>
       <c r="I11">
-        <v>0.3479839591519656</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="J11">
-        <v>0.3479839591519657</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.612515</v>
       </c>
       <c r="O11">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P11">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q11">
-        <v>90.01318542000166</v>
+        <v>93.77649693555834</v>
       </c>
       <c r="R11">
-        <v>810.118668780015</v>
+        <v>843.9884724200251</v>
       </c>
       <c r="S11">
-        <v>0.001379700874299872</v>
+        <v>0.005112505486101147</v>
       </c>
       <c r="T11">
-        <v>0.001379700874299873</v>
+        <v>0.005112505486101147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>167.4648336666667</v>
+        <v>174.4662783333333</v>
       </c>
       <c r="H12">
-        <v>502.394501</v>
+        <v>523.3988350000001</v>
       </c>
       <c r="I12">
-        <v>0.3479839591519656</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="J12">
-        <v>0.3479839591519657</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N12">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O12">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P12">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q12">
-        <v>16.10380915666522</v>
+        <v>9.627688948120555</v>
       </c>
       <c r="R12">
-        <v>144.934282409987</v>
+        <v>86.64920053308501</v>
       </c>
       <c r="S12">
-        <v>0.0002468353882749291</v>
+        <v>0.000524882184494117</v>
       </c>
       <c r="T12">
-        <v>0.0002468353882749292</v>
+        <v>0.000524882184494117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>167.4648336666667</v>
+        <v>174.4662783333333</v>
       </c>
       <c r="H13">
-        <v>502.394501</v>
+        <v>523.3988350000001</v>
       </c>
       <c r="I13">
-        <v>0.3479839591519656</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="J13">
-        <v>0.3479839591519657</v>
+        <v>0.3549257510290025</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N13">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O13">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P13">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q13">
-        <v>7607.639130676314</v>
+        <v>6387.003358310953</v>
       </c>
       <c r="R13">
-        <v>68468.75217608683</v>
+        <v>57483.03022479857</v>
       </c>
       <c r="S13">
-        <v>0.1166080981466931</v>
+        <v>0.3482065418966354</v>
       </c>
       <c r="T13">
-        <v>0.1166080981466931</v>
+        <v>0.3482065418966354</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.057224</v>
+        <v>100.965814</v>
       </c>
       <c r="H14">
-        <v>369.171672</v>
+        <v>302.897442</v>
       </c>
       <c r="I14">
-        <v>0.2557070584443177</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="J14">
-        <v>0.2557070584443178</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N14">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O14">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P14">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q14">
-        <v>11014.35135937647</v>
+        <v>11.48361609746066</v>
       </c>
       <c r="R14">
-        <v>99129.16223438822</v>
+        <v>103.352544877146</v>
       </c>
       <c r="S14">
-        <v>0.1688253796315591</v>
+        <v>0.0006260635896741981</v>
       </c>
       <c r="T14">
-        <v>0.1688253796315592</v>
+        <v>0.0006260635896741981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.057224</v>
+        <v>100.965814</v>
       </c>
       <c r="H15">
-        <v>369.171672</v>
+        <v>302.897442</v>
       </c>
       <c r="I15">
-        <v>0.2557070584443177</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="J15">
-        <v>0.2557070584443178</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.612515</v>
       </c>
       <c r="O15">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P15">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q15">
-        <v>66.14387318612</v>
+        <v>54.26962985406999</v>
       </c>
       <c r="R15">
-        <v>595.29485867508</v>
+        <v>488.4266686866299</v>
       </c>
       <c r="S15">
-        <v>0.001013837686541768</v>
+        <v>0.002958670769588174</v>
       </c>
       <c r="T15">
-        <v>0.001013837686541768</v>
+        <v>0.002958670769588174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.057224</v>
+        <v>100.965814</v>
       </c>
       <c r="H16">
-        <v>369.171672</v>
+        <v>302.897442</v>
       </c>
       <c r="I16">
-        <v>0.2557070584443177</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="J16">
-        <v>0.2557070584443178</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N16">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O16">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P16">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q16">
-        <v>11.83346979336267</v>
+        <v>5.571663824504665</v>
       </c>
       <c r="R16">
-        <v>106.501228140264</v>
+        <v>50.14497442054199</v>
       </c>
       <c r="S16">
-        <v>0.000181380633778523</v>
+        <v>0.0003037558748762596</v>
       </c>
       <c r="T16">
-        <v>0.000181380633778523</v>
+        <v>0.0003037558748762596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.057224</v>
+        <v>100.965814</v>
       </c>
       <c r="H17">
-        <v>369.171672</v>
+        <v>302.897442</v>
       </c>
       <c r="I17">
-        <v>0.2557070584443177</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="J17">
-        <v>0.2557070584443178</v>
+        <v>0.2053999644202756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N17">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O17">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P17">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q17">
-        <v>5590.277863818421</v>
+        <v>3696.238604118782</v>
       </c>
       <c r="R17">
-        <v>50312.50077436578</v>
+        <v>33266.14743706903</v>
       </c>
       <c r="S17">
-        <v>0.08568646049243835</v>
+        <v>0.201511474186137</v>
       </c>
       <c r="T17">
-        <v>0.08568646049243836</v>
+        <v>0.201511474186137</v>
       </c>
     </row>
   </sheetData>
